--- a/service/report/report_agent_act.xlsx
+++ b/service/report/report_agent_act.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25700" windowHeight="19920" tabRatio="989"/>
@@ -66,7 +66,7 @@
     <t>ООО "Речное Агентство", ИНН 9710008811, 109012 г Москва, ул Никольская, д 4/5, офис 403, тел.: +7 (495)649-83-71, р/с 40702810838000101330, в банке ПАО СБЕРБАНК, БИК 044525225, к/с 30101810400000000225</t>
   </si>
   <si>
-    <t>Генеральный директор_______________________Махлонов Д.В.</t>
+    <t>Генеральный директор_______________________ Туревич М.В.</t>
   </si>
 </sst>
 </file>
@@ -203,6 +203,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -214,21 +229,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,7 +685,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="10" x14ac:dyDescent="0"/>
@@ -702,20 +702,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="21.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="13.25" customHeight="1">
       <c r="A2" s="3"/>
@@ -747,18 +747,18 @@
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="52.25" customHeight="1">
       <c r="A4" s="7"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="19.25" customHeight="1">
@@ -767,34 +767,34 @@
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="19.25" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="19.25" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="19.25" customHeight="1">
       <c r="A8" s="7"/>
@@ -826,49 +826,49 @@
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="19.25" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="19.25" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="19.25" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="5"/>
@@ -896,11 +896,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="7"/>
@@ -916,105 +916,105 @@
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="G16" s="20" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="G16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="17.5" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="18.5" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="19.5" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="20.5" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" ht="20.5" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="41" customHeight="1">
       <c r="A26" s="14"/>
@@ -1023,11 +1023,11 @@
       <c r="E26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" ht="37" customHeight="1">
       <c r="A27" s="7"/>
@@ -1132,16 +1132,16 @@
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="20.5" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -1149,16 +1149,16 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="10">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B10:L11"/>
     <mergeCell ref="B16:C25"/>
     <mergeCell ref="G16:K25"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B10:L11"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
